--- a/va_facility_data_2025-02-20/Ashtabula County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ashtabula%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ashtabula County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ashtabula%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1bd422acc8de4c4f96766a8526672e9a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R08c62c35f1d540e583ca45a6659151b8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R79d04aefb0264b99aa45642bcf9fc854"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6b3d3291727f4c2d92960eb3641a637e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rabea2f4b207746bdb7bed281588d35be"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra2baeeca9feb4447b8fb618f93486f83"/>
   </x:sheets>
 </x:workbook>
 </file>
